--- a/biology/Histoire de la zoologie et de la botanique/John_Sterling_Kingsley/John_Sterling_Kingsley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Sterling_Kingsley/John_Sterling_Kingsley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Sterling Kingsley est un zoologiste américain, né le 7 avril 1854 à Cincinnati et mort le 29 août 1929.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Lewis et de Julia A. (née Kingman) Kingsley. Il obtient son Bachelor of Arts au Williams College en 1875, un Doctorat of Sciences à l’université de Princeton en 1885. Il passe une année (1891-1892) à l’université de Fribourg-en-Brisgau. Il se marie avec Mary Emma Read le 31 janvier 1882.
 Kingsley est conservateur du muséum d'histoire naturelle Peabody de 1876 à 1878, puis assistant à la commission entomologique du gouvernement américain de 1877 à 1880, puis conservateur à la Société d’histoire naturelle de Worcester, puis professeur de zoologie à l’université de l'Indiana de 1887 à 1889, puis professeur de biologie à l’université du Nebraska de 1889 à 1891, puis au Tufts College de 1892 à 1913, enfin, professeur de zoologie à l’université de l'Illinois de 1913 à 1921.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1878 : (en) Notes on the North American Caridea in the Museum of the Peabody Academy of Science at Salem, Mass. Proceedings of the Academy of Natural Sciences of Philadelphia, volume 30, pages 89-98 (URL stable sur JSTOR).
 1878 : (en) A synopsis of the north American species of the genus Alpheus. Bulletin of the United States Geological and Geographical Survey, volume 4, pages 189–199.
@@ -587,7 +603,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.), World Who’s Who in science. A biographical dictionary of notable scientists from antiquity to the present, Chicago, Marquis-Who’s Who, 1968, XVI-1855 p.</t>
         </is>
